--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/113.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/113.xlsx
@@ -479,13 +479,13 @@
         <v>-8.873740291070279</v>
       </c>
       <c r="E2" t="n">
-        <v>-13.92302526317552</v>
+        <v>-13.88713926108635</v>
       </c>
       <c r="F2" t="n">
-        <v>4.204878374443752</v>
+        <v>4.184140166742458</v>
       </c>
       <c r="G2" t="n">
-        <v>-9.52680016886085</v>
+        <v>-9.554307097131316</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-8.547856038920793</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.50187524871676</v>
+        <v>-14.46936706076075</v>
       </c>
       <c r="F3" t="n">
-        <v>4.424619585339283</v>
+        <v>4.404457438963025</v>
       </c>
       <c r="G3" t="n">
-        <v>-9.198497582801727</v>
+        <v>-9.224498896245395</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-8.170218020202963</v>
       </c>
       <c r="E4" t="n">
-        <v>-15.1264435557813</v>
+        <v>-15.09346404492299</v>
       </c>
       <c r="F4" t="n">
-        <v>4.495239466867553</v>
+        <v>4.473689536390072</v>
       </c>
       <c r="G4" t="n">
-        <v>-9.173229438317195</v>
+        <v>-9.201207689489964</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-7.768815175866119</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.74443952681929</v>
+        <v>-15.7063802024584</v>
       </c>
       <c r="F5" t="n">
-        <v>4.47677931986072</v>
+        <v>4.458266803642519</v>
       </c>
       <c r="G5" t="n">
-        <v>-8.82594301313757</v>
+        <v>-8.857207432323612</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-7.350723261971559</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.39148731786308</v>
+        <v>-16.36026217558556</v>
       </c>
       <c r="F6" t="n">
-        <v>4.464865324274749</v>
+        <v>4.445488716068994</v>
       </c>
       <c r="G6" t="n">
-        <v>-8.410720628512228</v>
+        <v>-8.439536787066867</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-6.931258267250104</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.93545940863396</v>
+        <v>-16.90054223695507</v>
       </c>
       <c r="F7" t="n">
-        <v>4.713592893661861</v>
+        <v>4.690707548294523</v>
       </c>
       <c r="G7" t="n">
-        <v>-8.400351524661581</v>
+        <v>-8.4229488393664</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-6.513576793731161</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.93072317835913</v>
+        <v>-17.89993008207539</v>
       </c>
       <c r="F8" t="n">
-        <v>4.870307758677322</v>
+        <v>4.845510937095093</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.555989637490141</v>
+        <v>-7.588851317622874</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-6.111865742388674</v>
       </c>
       <c r="E9" t="n">
-        <v>-18.55716368473004</v>
+        <v>-18.52588617324115</v>
       </c>
       <c r="F9" t="n">
-        <v>4.827365005356461</v>
+        <v>4.809192889012144</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.154330878608827</v>
+        <v>-7.183971852242495</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-5.729574859762272</v>
       </c>
       <c r="E10" t="n">
-        <v>-19.29710136443587</v>
+        <v>-19.26756512922494</v>
       </c>
       <c r="F10" t="n">
-        <v>4.972034951757533</v>
+        <v>4.951401482478973</v>
       </c>
       <c r="G10" t="n">
-        <v>-6.29754439604059</v>
+        <v>-6.330654829927315</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-5.375891799426276</v>
       </c>
       <c r="E11" t="n">
-        <v>-20.15678124593213</v>
+        <v>-20.12958853292987</v>
       </c>
       <c r="F11" t="n">
-        <v>5.158652636463497</v>
+        <v>5.135138860559756</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.049248872647255</v>
+        <v>-6.081743968300419</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-5.061220087120788</v>
       </c>
       <c r="E12" t="n">
-        <v>-21.11628993659655</v>
+        <v>-21.08731667040781</v>
       </c>
       <c r="F12" t="n">
-        <v>5.505598661769238</v>
+        <v>5.483865439051972</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.446845834293756</v>
+        <v>-5.475373962185876</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-4.787673503702653</v>
       </c>
       <c r="E13" t="n">
-        <v>-21.78577793471105</v>
+        <v>-21.75652973016264</v>
       </c>
       <c r="F13" t="n">
-        <v>5.636521690186498</v>
+        <v>5.615626374851104</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.041966368913377</v>
+        <v>-5.062822407340246</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-4.565751182205501</v>
       </c>
       <c r="E14" t="n">
-        <v>-22.58993335985555</v>
+        <v>-22.56346072350958</v>
       </c>
       <c r="F14" t="n">
-        <v>5.928270566711522</v>
+        <v>5.90580417503512</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.10121894822115</v>
+        <v>-4.119076849297264</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-4.395489113830696</v>
       </c>
       <c r="E15" t="n">
-        <v>-23.59210986548116</v>
+        <v>-23.56705119784209</v>
       </c>
       <c r="F15" t="n">
-        <v>6.150001807638994</v>
+        <v>6.121617695078132</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.670979692236348</v>
+        <v>-3.689243454700556</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-4.274353915178084</v>
       </c>
       <c r="E16" t="n">
-        <v>-24.24514083892361</v>
+        <v>-24.22217693973922</v>
       </c>
       <c r="F16" t="n">
-        <v>6.435859147885242</v>
+        <v>6.411638387628049</v>
       </c>
       <c r="G16" t="n">
-        <v>-3.46574475288945</v>
+        <v>-3.48447983825596</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-4.200107632007501</v>
       </c>
       <c r="E17" t="n">
-        <v>-25.11571351638419</v>
+        <v>-25.0963892773898</v>
       </c>
       <c r="F17" t="n">
-        <v>6.783067019247817</v>
+        <v>6.762983426688609</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.35713100851449</v>
+        <v>-3.375342401767331</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-4.161160140434737</v>
       </c>
       <c r="E18" t="n">
-        <v>-25.84254580094545</v>
+        <v>-25.82734563734621</v>
       </c>
       <c r="F18" t="n">
-        <v>6.668980692285016</v>
+        <v>6.641513040923074</v>
       </c>
       <c r="G18" t="n">
-        <v>-2.982560224212708</v>
+        <v>-2.998991064279074</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-4.14860076302554</v>
       </c>
       <c r="E19" t="n">
-        <v>-26.47498258201787</v>
+        <v>-26.46029301822945</v>
       </c>
       <c r="F19" t="n">
-        <v>6.778956036155515</v>
+        <v>6.753138014951631</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.580953834542761</v>
+        <v>-2.602202642054882</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-4.149507642137507</v>
       </c>
       <c r="E20" t="n">
-        <v>-26.97860419543055</v>
+        <v>-26.96637598457638</v>
       </c>
       <c r="F20" t="n">
-        <v>7.003096260805865</v>
+        <v>6.976073747740543</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.344690137460972</v>
+        <v>-2.359877208757374</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-4.147311589091755</v>
       </c>
       <c r="E21" t="n">
-        <v>-27.33315684868733</v>
+        <v>-27.31883386937848</v>
       </c>
       <c r="F21" t="n">
-        <v>6.963243290955651</v>
+        <v>6.936377885524429</v>
       </c>
       <c r="G21" t="n">
-        <v>-2.125983218489938</v>
+        <v>-2.144940873004757</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-4.130490367447154</v>
       </c>
       <c r="E22" t="n">
-        <v>-27.85074794923213</v>
+        <v>-27.83607147774655</v>
       </c>
       <c r="F22" t="n">
-        <v>7.011187303962052</v>
+        <v>6.979661038719176</v>
       </c>
       <c r="G22" t="n">
-        <v>-2.167223972441375</v>
+        <v>-2.183615535599216</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-4.08496012435445</v>
       </c>
       <c r="E23" t="n">
-        <v>-28.06523914668813</v>
+        <v>-28.05206829002935</v>
       </c>
       <c r="F23" t="n">
-        <v>7.028783358981332</v>
+        <v>6.999482785221549</v>
       </c>
       <c r="G23" t="n">
-        <v>-2.248749742236803</v>
+        <v>-2.260270968737522</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-4.002412483041025</v>
       </c>
       <c r="E24" t="n">
-        <v>-28.47216101131182</v>
+        <v>-28.46128130765034</v>
       </c>
       <c r="F24" t="n">
-        <v>7.24289487965492</v>
+        <v>7.212861136936001</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.568869639019848</v>
+        <v>-2.580011188738156</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-3.87936133013039</v>
       </c>
       <c r="E25" t="n">
-        <v>-28.36756660390927</v>
+        <v>-28.35557405450625</v>
       </c>
       <c r="F25" t="n">
-        <v>7.214432213277007</v>
+        <v>7.186205208350246</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.469957291050607</v>
+        <v>-2.478480380200571</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-3.713564628663279</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.85178542451051</v>
+        <v>-28.83937392141655</v>
       </c>
       <c r="F26" t="n">
-        <v>7.225063163184489</v>
+        <v>7.193641636364347</v>
       </c>
       <c r="G26" t="n">
-        <v>-2.563632717883157</v>
+        <v>-2.569170761985207</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-3.512884675280991</v>
       </c>
       <c r="E27" t="n">
-        <v>-28.71186798404098</v>
+        <v>-28.69662854353321</v>
       </c>
       <c r="F27" t="n">
-        <v>7.419483860384121</v>
+        <v>7.384029904288727</v>
       </c>
       <c r="G27" t="n">
-        <v>-2.639947751147578</v>
+        <v>-2.646886671653693</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-3.286233626499566</v>
       </c>
       <c r="E28" t="n">
-        <v>-28.95270089481453</v>
+        <v>-28.93946457664154</v>
       </c>
       <c r="F28" t="n">
-        <v>7.226424762680028</v>
+        <v>7.188614192073124</v>
       </c>
       <c r="G28" t="n">
-        <v>-2.797749277298903</v>
+        <v>-2.804308521022607</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-3.046585781831845</v>
       </c>
       <c r="E29" t="n">
-        <v>-29.31440194542289</v>
+        <v>-29.29540501399955</v>
       </c>
       <c r="F29" t="n">
-        <v>7.283585756887004</v>
+        <v>7.2459322939142</v>
       </c>
       <c r="G29" t="n">
-        <v>-2.91431004949879</v>
+        <v>-2.918931632401919</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-2.810323340958953</v>
       </c>
       <c r="E30" t="n">
-        <v>-29.00915490466805</v>
+        <v>-28.99057692693564</v>
       </c>
       <c r="F30" t="n">
-        <v>7.127158922534061</v>
+        <v>7.0880129370373</v>
       </c>
       <c r="G30" t="n">
-        <v>-2.891621088674079</v>
+        <v>-2.896452148422676</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-2.590149908359373</v>
       </c>
       <c r="E31" t="n">
-        <v>-28.91787536925554</v>
+        <v>-28.90380114370068</v>
       </c>
       <c r="F31" t="n">
-        <v>7.079686232429963</v>
+        <v>7.038890616775144</v>
       </c>
       <c r="G31" t="n">
-        <v>-2.800001153387679</v>
+        <v>-2.805355905249945</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-2.400732506308757</v>
       </c>
       <c r="E32" t="n">
-        <v>-28.80001845907432</v>
+        <v>-28.78585258739957</v>
       </c>
       <c r="F32" t="n">
-        <v>7.158632818565571</v>
+        <v>7.125744953827155</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.315392747055068</v>
+        <v>-3.319634653175787</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-2.251892504658737</v>
       </c>
       <c r="E33" t="n">
-        <v>-28.69597392839112</v>
+        <v>-28.67886228857699</v>
       </c>
       <c r="F33" t="n">
-        <v>7.400447652052251</v>
+        <v>7.360935082075923</v>
       </c>
       <c r="G33" t="n">
-        <v>-3.619369834434264</v>
+        <v>-3.624973340050522</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-2.148489239695996</v>
       </c>
       <c r="E34" t="n">
-        <v>-28.29558512288546</v>
+        <v>-28.27938994427024</v>
       </c>
       <c r="F34" t="n">
-        <v>7.348156994502397</v>
+        <v>7.315530975820816</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.81943331415868</v>
+        <v>-3.824434573844219</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-2.09384134593264</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.20446269510704</v>
+        <v>-28.18410416418816</v>
       </c>
       <c r="F35" t="n">
-        <v>7.294426183639954</v>
+        <v>7.262742810762977</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.080768771182374</v>
+        <v>-4.083675262413237</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-2.083321086172194</v>
       </c>
       <c r="E36" t="n">
-        <v>-27.89879670066126</v>
+        <v>-27.87860836967932</v>
       </c>
       <c r="F36" t="n">
-        <v>7.467270765756421</v>
+        <v>7.435351731428293</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.288006832864055</v>
+        <v>-4.29182978529384</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-2.109386047336534</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.46180181641013</v>
+        <v>-27.43891647104279</v>
       </c>
       <c r="F37" t="n">
-        <v>7.165859769734204</v>
+        <v>7.136114057677802</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.676272165938284</v>
+        <v>-4.68466433205983</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-2.160428518043629</v>
       </c>
       <c r="E38" t="n">
-        <v>-27.26799645744406</v>
+        <v>-27.2446659737801</v>
       </c>
       <c r="F38" t="n">
-        <v>7.542787168547497</v>
+        <v>7.514376871380952</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.688906238180549</v>
+        <v>-4.697363865816305</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-2.218998525784141</v>
       </c>
       <c r="E39" t="n">
-        <v>-26.93325245838681</v>
+        <v>-26.91517198816238</v>
       </c>
       <c r="F39" t="n">
-        <v>7.432314317169013</v>
+        <v>7.407700787826568</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.856238960800651</v>
+        <v>-4.867000833736549</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-2.270011067589065</v>
       </c>
       <c r="E40" t="n">
-        <v>-26.5910851236183</v>
+        <v>-26.56630139433891</v>
       </c>
       <c r="F40" t="n">
-        <v>7.53825723176426</v>
+        <v>7.514900563494621</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.953959909211294</v>
+        <v>-4.95999546082133</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-2.296508858107198</v>
       </c>
       <c r="E41" t="n">
-        <v>-26.32087308526791</v>
+        <v>-26.28977886601881</v>
       </c>
       <c r="F41" t="n">
-        <v>7.638806117588716</v>
+        <v>7.617046710265767</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.323738910673005</v>
+        <v>-5.331672846195091</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-2.286272147741975</v>
       </c>
       <c r="E42" t="n">
-        <v>-25.5985445528842</v>
+        <v>-25.57334186991388</v>
       </c>
       <c r="F42" t="n">
-        <v>7.609505543828933</v>
+        <v>7.586070321742244</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.40341866576775</v>
+        <v>-5.410200478639764</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-2.231805275000427</v>
       </c>
       <c r="E43" t="n">
-        <v>-25.10444104363746</v>
+        <v>-25.07788985347444</v>
       </c>
       <c r="F43" t="n">
-        <v>7.555015379401669</v>
+        <v>7.531030280595627</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.431959885962713</v>
+        <v>-5.438257283629583</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-2.129033536821147</v>
       </c>
       <c r="E44" t="n">
-        <v>-24.81718282698715</v>
+        <v>-24.79002939089341</v>
       </c>
       <c r="F44" t="n">
-        <v>7.754384967075474</v>
+        <v>7.736474696787993</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.473527947485193</v>
+        <v>-5.477861499725805</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-1.981964151352205</v>
       </c>
       <c r="E45" t="n">
-        <v>-24.27533168927663</v>
+        <v>-24.24923872971307</v>
       </c>
       <c r="F45" t="n">
-        <v>7.684681546746124</v>
+        <v>7.666457061190441</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.526577958599867</v>
+        <v>-5.532233833427493</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-1.797944582455648</v>
       </c>
       <c r="E46" t="n">
-        <v>-23.90403398068528</v>
+        <v>-23.87559749891305</v>
       </c>
       <c r="F46" t="n">
-        <v>7.575596479468863</v>
+        <v>7.557607655364331</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.418082044950483</v>
+        <v>-5.427495410693684</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-1.588730076153847</v>
       </c>
       <c r="E47" t="n">
-        <v>-23.43044610999153</v>
+        <v>-23.4039865659484</v>
       </c>
       <c r="F47" t="n">
-        <v>7.759412411366696</v>
+        <v>7.739721587892741</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.558195869962636</v>
+        <v>-5.564886036714757</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-1.370340966861434</v>
       </c>
       <c r="E48" t="n">
-        <v>-22.67445726700173</v>
+        <v>-22.65424275141411</v>
       </c>
       <c r="F48" t="n">
-        <v>7.782219202916983</v>
+        <v>7.7565582893472</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.819439680866437</v>
+        <v>-5.826470247492444</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-1.15826408470152</v>
       </c>
       <c r="E49" t="n">
-        <v>-22.38166100624937</v>
+        <v>-22.35817341495132</v>
       </c>
       <c r="F49" t="n">
-        <v>7.841029827282017</v>
+        <v>7.815237990683817</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.650889374082056</v>
+        <v>-5.665317091813638</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.968275262320498</v>
       </c>
       <c r="E50" t="n">
-        <v>-21.91149022659731</v>
+        <v>-21.88465100577177</v>
       </c>
       <c r="F50" t="n">
-        <v>7.764727886320437</v>
+        <v>7.73812432694605</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.696895726267881</v>
+        <v>-5.71061645964601</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.8144133687135483</v>
       </c>
       <c r="E51" t="n">
-        <v>-21.34530049790402</v>
+        <v>-21.32122375297809</v>
       </c>
       <c r="F51" t="n">
-        <v>7.831996138321226</v>
+        <v>7.808115777937918</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.810602376448272</v>
+        <v>-5.826339324464027</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.7058432626636483</v>
       </c>
       <c r="E52" t="n">
-        <v>-21.00554214685839</v>
+        <v>-20.98370418571839</v>
       </c>
       <c r="F52" t="n">
-        <v>7.556115132840374</v>
+        <v>7.53810012413016</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.937754821647116</v>
+        <v>-5.95387144644528</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.6496168363006126</v>
       </c>
       <c r="E53" t="n">
-        <v>-20.27754464734421</v>
+        <v>-20.25450219434277</v>
       </c>
       <c r="F53" t="n">
-        <v>7.734929805052669</v>
+        <v>7.712411044164901</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.975814146008013</v>
+        <v>-5.995138385002401</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.6480899422197002</v>
       </c>
       <c r="E54" t="n">
-        <v>-19.34543814652752</v>
+        <v>-19.32742313781731</v>
       </c>
       <c r="F54" t="n">
-        <v>7.64846823708591</v>
+        <v>7.625137753421955</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.003844766392149</v>
+        <v>-6.025577989109414</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.6993041275372782</v>
       </c>
       <c r="E55" t="n">
-        <v>-18.95691096739646</v>
+        <v>-18.93826752814984</v>
       </c>
       <c r="F55" t="n">
-        <v>7.60583969903325</v>
+        <v>7.584656353035337</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.45834405954267</v>
+        <v>-6.474892730334611</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.8006877938882111</v>
       </c>
       <c r="E56" t="n">
-        <v>-18.8358071661105</v>
+        <v>-18.81366808200514</v>
       </c>
       <c r="F56" t="n">
-        <v>7.33778789065175</v>
+        <v>7.320165651026787</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.33941358052843</v>
+        <v>-6.35928769624217</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.9457365941747562</v>
       </c>
       <c r="E57" t="n">
-        <v>-18.53961999892213</v>
+        <v>-18.5185282990441</v>
       </c>
       <c r="F57" t="n">
-        <v>7.347214348697793</v>
+        <v>7.329539739861463</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.237830402779477</v>
+        <v>-6.261880963099729</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-1.127090714870262</v>
       </c>
       <c r="E58" t="n">
-        <v>-17.93640523779244</v>
+        <v>-17.9215847509756</v>
       </c>
       <c r="F58" t="n">
-        <v>7.085446845680322</v>
+        <v>7.073480480882985</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.426359563700332</v>
+        <v>-6.443340280486051</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-1.33809513472439</v>
       </c>
       <c r="E59" t="n">
-        <v>-17.4359650539703</v>
+        <v>-17.4153184923889</v>
       </c>
       <c r="F59" t="n">
-        <v>7.167692692132046</v>
+        <v>7.146561715345499</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.53958179867558</v>
+        <v>-6.553786947258852</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-1.569166838745941</v>
       </c>
       <c r="E60" t="n">
-        <v>-17.16042444836333</v>
+        <v>-17.14247490116733</v>
       </c>
       <c r="F60" t="n">
-        <v>7.304350149193982</v>
+        <v>7.283847602943839</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.906899447203046</v>
+        <v>-6.922466195281858</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-1.811972455713105</v>
       </c>
       <c r="E61" t="n">
-        <v>-16.80304385769274</v>
+        <v>-16.78447897226317</v>
       </c>
       <c r="F61" t="n">
-        <v>7.084923153566653</v>
+        <v>7.066567744982553</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.695864617697263</v>
+        <v>-6.717440732780428</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-2.058636229813711</v>
       </c>
       <c r="E62" t="n">
-        <v>-16.39562448556106</v>
+        <v>-16.38017556820783</v>
       </c>
       <c r="F62" t="n">
-        <v>7.083168784985862</v>
+        <v>7.066358268137086</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.680166946590035</v>
+        <v>-6.704204414607443</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-2.298511350945904</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.88269424482792</v>
+        <v>-15.86862001927306</v>
       </c>
       <c r="F63" t="n">
-        <v>6.982070022442053</v>
+        <v>6.965495167044428</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.689488666213343</v>
+        <v>-6.711811042558486</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-2.525301680945597</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.67562638308318</v>
+        <v>-15.6608844500834</v>
       </c>
       <c r="F64" t="n">
-        <v>6.790005939753931</v>
+        <v>6.772933576848321</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.437671313355584</v>
+        <v>-6.460307904968928</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-2.730390490258674</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.43251541161517</v>
+        <v>-15.41952784719618</v>
       </c>
       <c r="F65" t="n">
-        <v>6.750938508074221</v>
+        <v>6.735777621383503</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.528767556528314</v>
+        <v>-6.550592425365472</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-2.906155834974588</v>
       </c>
       <c r="E66" t="n">
-        <v>-15.03669581980127</v>
+        <v>-15.0235904246567</v>
       </c>
       <c r="F66" t="n">
-        <v>6.761438534953285</v>
+        <v>6.743790110722639</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.611576372002231</v>
+        <v>-6.632314579703525</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-3.046371111760317</v>
       </c>
       <c r="E67" t="n">
-        <v>-14.91555274160677</v>
+        <v>-14.90710820627386</v>
       </c>
       <c r="F67" t="n">
-        <v>6.713730183398035</v>
+        <v>6.696893481943576</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.578269553572881</v>
+        <v>-6.596677331368347</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-3.143944529867335</v>
       </c>
       <c r="E68" t="n">
-        <v>-14.5374077586292</v>
+        <v>-14.531634053076</v>
       </c>
       <c r="F68" t="n">
-        <v>6.423997521510638</v>
+        <v>6.407108450844811</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.427577147864613</v>
+        <v>-6.447294155944252</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-3.193979037494667</v>
       </c>
       <c r="E69" t="n">
-        <v>-14.69780156074319</v>
+        <v>-14.69596863834535</v>
       </c>
       <c r="F69" t="n">
-        <v>6.409779280624523</v>
+        <v>6.391057287560855</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.33455633617415</v>
+        <v>-6.353513990688969</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-3.190910440407465</v>
       </c>
       <c r="E70" t="n">
-        <v>-14.56826631642715</v>
+        <v>-14.56322577983308</v>
       </c>
       <c r="F70" t="n">
-        <v>6.3568078233269</v>
+        <v>6.338583337771217</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.426634502060009</v>
+        <v>-6.44712395600731</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-3.131909714974333</v>
       </c>
       <c r="E71" t="n">
-        <v>-14.55260792222844</v>
+        <v>-14.54653309370988</v>
       </c>
       <c r="F71" t="n">
-        <v>6.464714583348406</v>
+        <v>6.441724499558335</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.274907804427245</v>
+        <v>-6.295279427648971</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-3.013370330884772</v>
       </c>
       <c r="E72" t="n">
-        <v>-14.50660157004262</v>
+        <v>-14.49864144991485</v>
       </c>
       <c r="F72" t="n">
-        <v>6.074328297213818</v>
+        <v>6.053930489386409</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.371633737821917</v>
+        <v>-6.389098869812781</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-2.834486305890489</v>
       </c>
       <c r="E73" t="n">
-        <v>-14.74729046548491</v>
+        <v>-14.73904231469462</v>
       </c>
       <c r="F73" t="n">
-        <v>6.029186037015546</v>
+        <v>6.012401704772453</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.093697240794915</v>
+        <v>-6.11011498855844</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-2.596661633727062</v>
       </c>
       <c r="E74" t="n">
-        <v>-14.89329582677584</v>
+        <v>-14.88441924544915</v>
       </c>
       <c r="F74" t="n">
-        <v>5.958880370755478</v>
+        <v>5.941231946524831</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.856988405416508</v>
+        <v>-5.87437498359032</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-2.300383174223766</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.16215935793353</v>
+        <v>-15.15227466928802</v>
       </c>
       <c r="F75" t="n">
-        <v>5.670849708237504</v>
+        <v>5.659511773976569</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.660512216670725</v>
+        <v>-5.678068994781479</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-1.953836774924645</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.2740723626246</v>
+        <v>-15.26386036640806</v>
       </c>
       <c r="F76" t="n">
-        <v>5.695986929693618</v>
+        <v>5.680459458523331</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.391033347279477</v>
+        <v>-5.413944877252497</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-1.560858089197732</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.47045690525049</v>
+        <v>-15.46273244657387</v>
       </c>
       <c r="F77" t="n">
-        <v>5.633248614476067</v>
+        <v>5.619632619520671</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.375636799137607</v>
+        <v>-5.399883744000483</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-1.129198811263591</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.88685759713159</v>
+        <v>-15.87513998608824</v>
       </c>
       <c r="F78" t="n">
-        <v>5.432150842827155</v>
+        <v>5.421991215821975</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.892059501375613</v>
+        <v>-4.918479768510216</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.669129132230726</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.13260012147079</v>
+        <v>-16.11995295692568</v>
       </c>
       <c r="F79" t="n">
-        <v>5.018355519211561</v>
+        <v>5.008588661291633</v>
       </c>
       <c r="G79" t="n">
-        <v>-4.99542323231104</v>
+        <v>-5.023087268215607</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.1846973159571771</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.74926067761893</v>
+        <v>-16.73233233004457</v>
       </c>
       <c r="F80" t="n">
-        <v>5.216127845938674</v>
+        <v>5.205051757734574</v>
       </c>
       <c r="G80" t="n">
-        <v>-4.891156132479534</v>
+        <v>-4.919880644914281</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.3111659475540875</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.34612567187038</v>
+        <v>-17.33049346227736</v>
       </c>
       <c r="F81" t="n">
-        <v>4.87787510971984</v>
+        <v>4.868186805616962</v>
       </c>
       <c r="G81" t="n">
-        <v>-4.840881689567306</v>
+        <v>-4.872146108753348</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.8130602813111083</v>
       </c>
       <c r="E82" t="n">
-        <v>-18.03993916866481</v>
+        <v>-18.01745968468557</v>
       </c>
       <c r="F82" t="n">
-        <v>5.05938679631753</v>
+        <v>5.043021417765372</v>
       </c>
       <c r="G82" t="n">
-        <v>-4.740372080651375</v>
+        <v>-4.7680230242531</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>1.314975315406332</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.83283521336542</v>
+        <v>-18.8081038532974</v>
       </c>
       <c r="F83" t="n">
-        <v>4.881148185430271</v>
+        <v>4.870962373819408</v>
       </c>
       <c r="G83" t="n">
-        <v>-4.657327603726307</v>
+        <v>-4.686274685309363</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>1.805027625774727</v>
       </c>
       <c r="E84" t="n">
-        <v>-19.72503637512053</v>
+        <v>-19.69979441524168</v>
       </c>
       <c r="F84" t="n">
-        <v>4.949620929292498</v>
+        <v>4.938387733454298</v>
       </c>
       <c r="G84" t="n">
-        <v>-4.530148973921779</v>
+        <v>-4.552013119667462</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>2.280080417834577</v>
       </c>
       <c r="E85" t="n">
-        <v>-20.79259584113771</v>
+        <v>-20.76267992914437</v>
       </c>
       <c r="F85" t="n">
-        <v>4.67816512217215</v>
+        <v>4.668031679772654</v>
       </c>
       <c r="G85" t="n">
-        <v>-4.264061010966539</v>
+        <v>-4.285741864472437</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>2.728664857378956</v>
       </c>
       <c r="E86" t="n">
-        <v>-21.94109192332245</v>
+        <v>-21.91001079637619</v>
       </c>
       <c r="F86" t="n">
-        <v>4.597202321398916</v>
+        <v>4.58987063180755</v>
       </c>
       <c r="G86" t="n">
-        <v>-4.039816047893455</v>
+        <v>-4.05692768770759</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>3.142560669356513</v>
       </c>
       <c r="E87" t="n">
-        <v>-23.10155437030452</v>
+        <v>-23.07039468954122</v>
       </c>
       <c r="F87" t="n">
-        <v>4.493144698412877</v>
+        <v>4.487803038853453</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.958028432041192</v>
+        <v>-3.976279102202558</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>3.515432412960805</v>
       </c>
       <c r="E88" t="n">
-        <v>-24.38446912576526</v>
+        <v>-24.35543039806231</v>
       </c>
       <c r="F88" t="n">
-        <v>4.309040735852525</v>
+        <v>4.301394830992957</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.112583067087768</v>
+        <v>-4.126199062043163</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>3.835395790788403</v>
       </c>
       <c r="E89" t="n">
-        <v>-26.12217120503904</v>
+        <v>-26.092477862194</v>
       </c>
       <c r="F89" t="n">
-        <v>4.336586941031517</v>
+        <v>4.327919836550294</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.142721548229422</v>
+        <v>-4.155290158957478</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>4.098069584560355</v>
       </c>
       <c r="E90" t="n">
-        <v>-27.74058931312184</v>
+        <v>-27.70470331103267</v>
       </c>
       <c r="F90" t="n">
-        <v>4.039234558890234</v>
+        <v>4.030724562043113</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.223199933797511</v>
+        <v>-4.235349590834633</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>4.296227010602258</v>
       </c>
       <c r="E91" t="n">
-        <v>-29.31279159217336</v>
+        <v>-29.27486319084088</v>
       </c>
       <c r="F91" t="n">
-        <v>3.684014198188523</v>
+        <v>3.677991738881329</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.186685501171937</v>
+        <v>-4.195850113161146</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>4.423918193870223</v>
       </c>
       <c r="E92" t="n">
-        <v>-30.95755141357373</v>
+        <v>-30.92204508826697</v>
       </c>
       <c r="F92" t="n">
-        <v>3.339450971999976</v>
+        <v>3.335497096541775</v>
       </c>
       <c r="G92" t="n">
-        <v>-4.387796365123692</v>
+        <v>-4.394630547207073</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>4.475703293136778</v>
       </c>
       <c r="E93" t="n">
-        <v>-33.06550381721151</v>
+        <v>-33.0280991079927</v>
       </c>
       <c r="F93" t="n">
-        <v>3.1538021177043</v>
+        <v>3.152178672151926</v>
       </c>
       <c r="G93" t="n">
-        <v>-4.777240005453676</v>
+        <v>-4.77864088185774</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>4.444952979621325</v>
       </c>
       <c r="E94" t="n">
-        <v>-35.13425786614118</v>
+        <v>-35.09588432651208</v>
       </c>
       <c r="F94" t="n">
-        <v>3.02659730329409</v>
+        <v>3.026309272631572</v>
       </c>
       <c r="G94" t="n">
-        <v>-5.007023012628809</v>
+        <v>-5.005936351492946</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>4.330268608715005</v>
       </c>
       <c r="E95" t="n">
-        <v>-37.16217702250749</v>
+        <v>-37.12951172691739</v>
       </c>
       <c r="F95" t="n">
-        <v>2.651581380695688</v>
+        <v>2.653204826248063</v>
       </c>
       <c r="G95" t="n">
-        <v>-5.309429023666999</v>
+        <v>-5.29836602776574</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>4.12444994484111</v>
       </c>
       <c r="E96" t="n">
-        <v>-39.66503255676027</v>
+        <v>-39.63351938382023</v>
       </c>
       <c r="F96" t="n">
-        <v>2.32217904119786</v>
+        <v>2.322519441071746</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.67556836493871</v>
+        <v>-5.656807094966516</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>3.837812751456051</v>
       </c>
       <c r="E97" t="n">
-        <v>-41.81795702065939</v>
+        <v>-41.78848624696266</v>
       </c>
       <c r="F97" t="n">
-        <v>2.058997569473483</v>
+        <v>2.066381628276217</v>
       </c>
       <c r="G97" t="n">
-        <v>-6.209197536464623</v>
+        <v>-6.187372667627465</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>3.462913903373858</v>
       </c>
       <c r="E98" t="n">
-        <v>-44.18545123583155</v>
+        <v>-44.15382023216594</v>
       </c>
       <c r="F98" t="n">
-        <v>1.465549666263724</v>
+        <v>1.47280280203804</v>
       </c>
       <c r="G98" t="n">
-        <v>-6.45334279985713</v>
+        <v>-6.426673778968534</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>3.032189712803311</v>
       </c>
       <c r="E99" t="n">
-        <v>-46.3819992527993</v>
+        <v>-46.34992311083707</v>
       </c>
       <c r="F99" t="n">
-        <v>1.21187320640244</v>
+        <v>1.220880710757547</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.596127454648995</v>
+        <v>-6.579015814834858</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>2.531107392131356</v>
       </c>
       <c r="E100" t="n">
-        <v>-48.72270661635729</v>
+        <v>-48.68685989117665</v>
       </c>
       <c r="F100" t="n">
-        <v>1.010932542387628</v>
+        <v>1.027769243842088</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.851597559999595</v>
+        <v>-6.828293260941323</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>2.029842140582072</v>
       </c>
       <c r="E101" t="n">
-        <v>-50.84910607469908</v>
+        <v>-50.81541957948731</v>
       </c>
       <c r="F101" t="n">
-        <v>0.8006046972352987</v>
+        <v>0.8170879065130319</v>
       </c>
       <c r="G101" t="n">
-        <v>-7.031145401171027</v>
+        <v>-7.003887226654553</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>1.46418564417704</v>
       </c>
       <c r="E102" t="n">
-        <v>-53.430201210734</v>
+        <v>-53.40001036038098</v>
       </c>
       <c r="F102" t="n">
-        <v>0.319449475499024</v>
+        <v>0.3445997892579797</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.376481073227235</v>
+        <v>-7.349065791076661</v>
       </c>
     </row>
   </sheetData>
